--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boehringer-my.sharepoint.com/personal/pol_rigau_ext_boehringer-ingelheim_com/Documents/Documents/Entrada/Pol/Marta/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5BD05A54FDC50FD3533088B35299F396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8522B684-BE86-4D6F-8925-281C9DE7EF87}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>anna</t>
+  </si>
+  <si>
+    <t>laura</t>
+  </si>
+  <si>
+    <t>iaia</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +78,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,47 +406,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Telefono</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>anna</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>638555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boehringer-my.sharepoint.com/personal/pol_rigau_ext_boehringer-ingelheim_com/Documents/Documents/Entrada/Pol/Marta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5BD05A54FDC50FD3533088B35299F396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8522B684-BE86-4D6F-8925-281C9DE7EF87}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5B60530386BB67D0593088B35299F278" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFEC74A7-C84C-4B5A-B982-DDFD2E2A5AF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>ele</t>
+  </si>
+  <si>
+    <t>agus</t>
+  </si>
+  <si>
+    <t>934568584</t>
   </si>
 </sst>
 </file>
@@ -96,13 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -407,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,7 +433,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -436,8 +444,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>638555</v>
+      <c r="C2">
+        <v>638555678</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,8 +455,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>3</v>
+      <c r="C3">
+        <v>638555679</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,8 +466,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>333333</v>
+      <c r="C4">
+        <v>638555680</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,6 +476,42 @@
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>638555681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>638555682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>638555683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://boehringer-my.sharepoint.com/personal/pol_rigau_ext_boehringer-ingelheim_com/Documents/Documents/Entrada/Pol/Marta/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5B60530386BB67D0593088B35299F278" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFEC74A7-C84C-4B5A-B982-DDFD2E2A5AF1}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>anna</t>
-  </si>
-  <si>
-    <t>laura</t>
-  </si>
-  <si>
-    <t>iaia</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>ele</t>
-  </si>
-  <si>
-    <t>agus</t>
-  </si>
-  <si>
-    <t>934568584</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,104 +420,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Telefono</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>anna</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>638555678</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>laura</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>638555679</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>638555678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>iaia</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>638555680</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>638555679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>638555681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>638555680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pol</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>638555682</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>638555681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ele</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>638555683</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>638555682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>agus</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>934568584</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>638555683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Señora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Descripcion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Telefono</t>
         </is>
       </c>
@@ -459,7 +464,12 @@
           <t>anna</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>638555678</v>
       </c>
     </row>
@@ -472,7 +482,12 @@
           <t>laura</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>638555679</v>
       </c>
     </row>
@@ -485,7 +500,12 @@
           <t>iaia</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>638555680</v>
       </c>
     </row>
@@ -498,7 +518,12 @@
           <t>dd</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>638555681</v>
       </c>
     </row>
@@ -511,7 +536,12 @@
           <t>pol</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>638555682</v>
       </c>
     </row>
@@ -524,7 +554,12 @@
           <t>ele</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>638555683</v>
       </c>
     </row>
@@ -537,7 +572,12 @@
           <t>agus</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>934568584</v>
       </c>
     </row>
@@ -552,9 +592,142 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lola</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lolas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lolasa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dolores</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lolasa2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>dolores</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lolasa3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>dolores</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lolasa4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>dolores</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lolasa5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>dolores</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3333333335</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sagra</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +729,378 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>alvaro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>amigo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>amiga</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>amigas</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>amigas2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>amigos2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ala</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>aladin</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>genio</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>genios</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>genioso</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abuela</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>abuelo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abueloa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>abuelos</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pere</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>joan</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,126 +981,6 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>genio</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>genios</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>genioso</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="n">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>abuela</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="n">
-        <v>333333333</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>abuelo</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
-        <v>333333333</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>abueloa</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
-        <v>333333333</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>abuelos</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v>333333333</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pere</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v>333333333</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>joan</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,18 +969,6 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>aladin</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,102 +873,6 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>amiga</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>amiga</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>amiga</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>amiga</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>amigas</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>amigas2</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>amigos2</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/clientes.xlsx
+++ b/data/clientes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,18 +861,6 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>amiga</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
